--- a/data/trans_dic/P42_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P42_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en ERTE o cese de actividad</t>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,81; 27,8</t>
+          <t>8,56; 14,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 22,12</t>
+          <t>3,98; 10,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,96</t>
+          <t>1,5; 4,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,51</t>
+          <t>1,08; 3,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,34; 30,91</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 16,6</t>
+          <t>7,4; 11,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,61</t>
+          <t>3,67; 7,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,88</t>
+          <t>1,53; 3,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,58; 27,1</t>
+          <t>1,83; 4,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,56; 17,55</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,38</t>
+          <t>8,43; 12,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,19</t>
+          <t>4,32; 7,93</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 3,42</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 3,35</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,43</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 22,21</t>
+          <t>5,82; 12,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,97</t>
+          <t>1,81; 4,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,49</t>
+          <t>0,31; 1,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,02</t>
+          <t>0,28; 1,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,52; 23,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 11,94</t>
+          <t>4,54; 8,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,02</t>
+          <t>1,48; 4,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,75</t>
+          <t>0,43; 2,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 20,73</t>
+          <t>0,52; 2,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,63</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,06</t>
+          <t>5,9; 9,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,15</t>
+          <t>2,04; 4,08</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 1,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 1,61</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,55</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,88%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17,52%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,95%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>4,34%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 13,55</t>
+          <t>0,61; 6,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,43</t>
+          <t>0,0; 4,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,22</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 29,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 20,79</t>
+          <t>2,96; 10,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,77</t>
+          <t>0,62; 5,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,7</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 16,99</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,48</t>
+          <t>2,47; 6,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,33; 3,75</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,67</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,63</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 21,79</t>
+          <t>7,41; 11,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 13,37</t>
+          <t>3,08; 6,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,24</t>
+          <t>1,01; 2,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,14</t>
+          <t>0,78; 2,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,62; 25,58</t>
+          <t>0,0; 0,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 13,19</t>
+          <t>6,52; 9,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,75</t>
+          <t>2,94; 5,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,92</t>
+          <t>1,17; 2,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 22,0</t>
+          <t>1,33; 2,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,12</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,38</t>
+          <t>7,37; 9,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,27</t>
+          <t>3,4; 5,27</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 2,17</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 2,09</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>182075</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>102773</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40864</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33526</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>167367</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>95583</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43574</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>50016</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>349442</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>198355</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>84438</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>83542</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>139106; 239634</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>65219; 168888</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24674; 71541</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17765; 58561</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12478</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>131366; 211386</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66286; 131560</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27898; 66841</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33300; 74631</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13568</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>286730; 412504</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>148796; 272983</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>60425; 118859</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>60383; 115971</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14680</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>115272</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42199</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12176</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11529</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>89970</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37050</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13923</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14866</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2966</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>205243</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79249</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>26099</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26395</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2966</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>80383; 170417</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24934; 63664</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4312; 26332</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3843; 26794</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>63942; 116165</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20533; 60271</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5963; 29235</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7175; 29196</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18326</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>164388; 257725</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56345; 112831</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>12935; 42787</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14965; 44425</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15098</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10811</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2392</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24218</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8620</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5859</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2253</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>35029</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12663</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8251</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2253</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2577; 26363</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20924</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14619</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12195; 43034</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2551; 23021</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20232</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12974</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20577; 54912</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2738; 31332</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2188; 22250</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13616</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>308158</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149015</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>55432</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>45055</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>281556</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>141253</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>63357</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>67136</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4985</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>589714</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>290268</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>118789</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>112191</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7489</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>253996; 381429</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>105687; 218102</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34724; 86882</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26810; 72869</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11801</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>234365; 336446</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>105913; 185396</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>42195; 88011</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48191; 93668</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 17025</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>517689; 687911</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>239466; 371186</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>88397; 153302</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>84010; 147287</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2013; 21872</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
